--- a/biology/Médecine/Pierre-Jacques-Thomas_Cochon-Duvivier/Pierre-Jacques-Thomas_Cochon-Duvivier.xlsx
+++ b/biology/Médecine/Pierre-Jacques-Thomas_Cochon-Duvivier/Pierre-Jacques-Thomas_Cochon-Duvivier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre-Jacques-Thomas Cochon-Duvivier (8 octobre 1731, Fressines - 26 avril 1813, Rochefort), est un chirurgien de marine et homme politique français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Appartenant à la même famille que Charles Cochon de Lapparent, de Jean Cochon-Dupuy et cousin germain de Pierre Dubreuil-Chambardel, Pierre-Jacques-Thomas Cochon est le fils de  Nicolas Cochon, sieur de La Tour, et de Jeanne Marie Monnet.
 Entré dans le corps des chirurgiens de la Marine en 1749, il sert comme second puis premier chirurgien et navigue aux Indes, en Afrique et aux Antilles. Durant la guerre de Sept Ans, il prend part à l'expédition de Louisbourg sous les ordres du chef d'escadre Emmanuel-Auguste Cahideuc Dubois de La Motte en 1757.
@@ -547,7 +561,9 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une rue de la ville de Rochefort porte son nom.
 </t>
@@ -578,7 +594,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>« Pierre-Jacques-Thomas Cochon-Duvivier », dans Adolphe Robert et Gaston Cougny, Dictionnaire des parlementaires français, Edgar Bourloton, 1889-1891 [détail de l’édition]</t>
         </is>
